--- a/Base/Teams/Falcons/2021 Team Data.xlsx
+++ b/Base/Teams/Falcons/2021 Team Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Falcons/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BA4C45D24B1BA8A59517B61CBFB62E3CBC01B87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB28F2DC-D9E6-4105-8AD5-4B4B20D76ECB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -35,16 +41,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2</t>
-  </si>
-  <si>
-    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7</t>
-  </si>
-  <si>
-    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4</t>
-  </si>
-  <si>
-    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8</t>
+    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0</t>
+  </si>
+  <si>
+    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30</t>
+  </si>
+  <si>
+    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9</t>
+  </si>
+  <si>
+    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +173,13 @@
     <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19</t>
   </si>
   <si>
-    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19</t>
-  </si>
-  <si>
-    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51</t>
-  </si>
-  <si>
-    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11</t>
-  </si>
-  <si>
-    <t>0 7 0 7 6 0 5 0 15 9 0 0 0 2 4 0 15 0 4 0 17 0 8 0 13 0 0 0 0 5 4 0 0 11 0 0 0 3</t>
+    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30</t>
+  </si>
+  <si>
+    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44</t>
+  </si>
+  <si>
+    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -204,13 +207,16 @@
   </si>
   <si>
     <t>Offside</t>
+  </si>
+  <si>
+    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +279,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +365,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +417,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,45 +710,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>23</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="M2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -710,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -721,28 +771,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +804,7 @@
         <v>137</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -772,14 +822,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -840,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,52 +993,52 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>57</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="M2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="N2">
         <v>8</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -996,28 +1046,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1047,14 +1097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1153,14 +1203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,27 +1262,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2">
         <v>25</v>
@@ -1263,12 +1315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1277,7 +1329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1291,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1302,10 +1354,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1319,28 +1371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,54 +1450,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Falcons/2021 Team Data.xlsx
+++ b/Base/Teams/Falcons/2021 Team Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Falcons/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BA4C45D24B1BA8A59517B61CBFB62E3CBC01B87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB28F2DC-D9E6-4105-8AD5-4B4B20D76ECB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="YDS" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="TURNS" sheetId="7" r:id="rId7"/>
     <sheet name="PEN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -41,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0</t>
-  </si>
-  <si>
-    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30</t>
-  </si>
-  <si>
-    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9</t>
-  </si>
-  <si>
-    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3</t>
+    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3</t>
+  </si>
+  <si>
+    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23</t>
+  </si>
+  <si>
+    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4</t>
+  </si>
+  <si>
+    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,19 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63</t>
-  </si>
-  <si>
-    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19</t>
-  </si>
-  <si>
-    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30</t>
-  </si>
-  <si>
-    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44</t>
-  </si>
-  <si>
-    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0</t>
+    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66</t>
+  </si>
+  <si>
+    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25</t>
+  </si>
+  <si>
+    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38</t>
+  </si>
+  <si>
+    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64</t>
+  </si>
+  <si>
+    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -207,16 +204,13 @@
   </si>
   <si>
     <t>Offside</t>
-  </si>
-  <si>
-    <t>0 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -333,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,27 +660,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -739,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -754,42 +704,42 @@
         <v>10</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>27</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J3">
         <v>42</v>
@@ -798,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="L3">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="M3">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -813,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>339</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -822,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -928,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,28 +943,28 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -1026,36 +976,36 @@
         <v>142</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -1064,19 +1014,19 @@
         <v>19</v>
       </c>
       <c r="I3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="M3">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="N3">
         <v>7</v>
@@ -1088,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>388</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -1097,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,16 +1153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1262,45 +1210,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>56</v>
+      </c>
+      <c r="K2">
         <v>54</v>
       </c>
-      <c r="K2">
-        <v>52</v>
-      </c>
       <c r="L2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1315,12 +1263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1329,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1354,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1371,28 +1319,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1417,13 +1365,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1432,14 +1380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,51 +1398,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/Base/Teams/Falcons/2021 Team Data.xlsx
+++ b/Base/Teams/Falcons/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3</t>
-  </si>
-  <si>
-    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23</t>
-  </si>
-  <si>
-    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4</t>
-  </si>
-  <si>
-    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11</t>
+    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3</t>
+  </si>
+  <si>
+    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4</t>
+  </si>
+  <si>
+    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2</t>
+  </si>
+  <si>
+    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66</t>
-  </si>
-  <si>
-    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25</t>
-  </si>
-  <si>
-    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38</t>
-  </si>
-  <si>
-    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64</t>
-  </si>
-  <si>
-    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0</t>
+    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64</t>
+  </si>
+  <si>
+    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15</t>
+  </si>
+  <si>
+    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24</t>
+  </si>
+  <si>
+    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46</t>
+  </si>
+  <si>
+    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 23 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>148</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>23</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="M3">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>406</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M3">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="N3">
         <v>7</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>451</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,16 +1239,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1371,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Falcons/2021 Team Data.xlsx
+++ b/Base/Teams/Falcons/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3</t>
-  </si>
-  <si>
-    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4</t>
-  </si>
-  <si>
-    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2</t>
-  </si>
-  <si>
-    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1</t>
+    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0</t>
+  </si>
+  <si>
+    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4</t>
+  </si>
+  <si>
+    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7</t>
+  </si>
+  <si>
+    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64</t>
-  </si>
-  <si>
-    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15</t>
-  </si>
-  <si>
-    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24</t>
-  </si>
-  <si>
-    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46</t>
-  </si>
-  <si>
-    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 23 0</t>
+    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64 64</t>
+  </si>
+  <si>
+    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15 25</t>
+  </si>
+  <si>
+    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24 24 23 32</t>
+  </si>
+  <si>
+    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46 54 61</t>
+  </si>
+  <si>
+    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2 19 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 23 0 13 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -677,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -689,28 +689,28 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M2">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="N2">
         <v>13</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>382</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>175</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="M2">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="N2">
         <v>9</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>376</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3">
         <v>29</v>
       </c>
-      <c r="F3">
-        <v>91</v>
-      </c>
-      <c r="G3">
-        <v>26</v>
-      </c>
       <c r="H3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1245,16 +1245,16 @@
         <v>55</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
         <v>12</v>
-      </c>
-      <c r="O2">
-        <v>11</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,10 +1348,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1368,10 +1368,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Falcons/2021 Team Data.xlsx
+++ b/Base/Teams/Falcons/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0</t>
-  </si>
-  <si>
-    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4</t>
-  </si>
-  <si>
-    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7</t>
-  </si>
-  <si>
-    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8</t>
+    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6</t>
+  </si>
+  <si>
+    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4 8 15 0 9 10 61 15 24 4 1 8 15 17 11</t>
+  </si>
+  <si>
+    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8</t>
+  </si>
+  <si>
+    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8 13 15 11 15 5 6 10 13 9 15 8 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,19 +161,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64 64</t>
-  </si>
-  <si>
-    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15 25</t>
-  </si>
-  <si>
-    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24 24 23 32</t>
-  </si>
-  <si>
-    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46 54 61</t>
-  </si>
-  <si>
-    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2 19 0</t>
+    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64 64 65 66 61</t>
+  </si>
+  <si>
+    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15 25 23 26 25</t>
+  </si>
+  <si>
+    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24 24 23 32 23</t>
+  </si>
+  <si>
+    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46 54 61 34 34 40 37 48</t>
+  </si>
+  <si>
+    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2 19 0 0 0 0 0 19</t>
   </si>
   <si>
     <t>0 0 0 0 0 0 23 0 13 0</t>
@@ -668,19 +668,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>166</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -721,37 +721,37 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M3">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>469</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>167</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>451</v>
@@ -996,37 +996,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>21</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="M3">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="N3">
         <v>7</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>509</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>57</v>
-      </c>
-      <c r="K2">
-        <v>55</v>
       </c>
       <c r="L2">
         <v>28</v>
@@ -1365,10 +1365,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Falcons/2021 Team Data.xlsx
+++ b/Base/Teams/Falcons/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6</t>
-  </si>
-  <si>
-    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4 8 15 0 9 10 61 15 24 4 1 8 15 17 11</t>
-  </si>
-  <si>
-    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8</t>
-  </si>
-  <si>
-    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8 13 15 11 15 5 6 10 13 9 15 8 2</t>
+    <t>12 4 3 -2 3 10 11 14 1 8 7 12 3 2 11 3 1 4 3 -1 0 0 -1 3 8 5 7 -1 0 2 3 10 0 0 8 2 0 8 1 -3 1 8 6 0 3 4 1 0 5 2 11 1 3 11 5 10 3 3 3 2 0 2 1 3 -1 5 2 2 8 2 3 2 4 -3 10 2 5 -3 1 2 -3 3 3 13 5 2 0 13 1 2 -3 4 17 10 1 6 1 3 9 0 3 1 4 0 8 4 3 17 0 5 2 1 4 1 1 3 -2 3 6 3 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 1 0 4 1 5 0 2 2 1 3 4 4 5 1 2 1 0 1 3 -4 -1 2 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 0 7 5 -2 4 19 15 1 11 7 1 27 4 12 4 2 1 2 7 0 6 1 2 6 2 5 2 7 39 17 6 5 1 5 11 0 4 2 0 4 0 3 1 0 2 3 0 14 0 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 4 0 0 7 2 7 1 3 2 3 3 6 0 0 2 -1 5 4 8 2 1 3 3 2 2 3 2 1 0 8 3 2 9 3 3 -2 3 0 2 4 3 0 4 4 13 9 -4 8 6 4 1 11 -3 7 5 2 13 0 6 3 2 2 4 3 6 4 9 6 2 19 2</t>
+  </si>
+  <si>
+    <t>16 1 11 12 7 3 7 9 9 5 18 5 12 6 9 7 6 8 7 5 0 9 5 9 4 5 23 24 4 8 24 7 6 1 14 8 3 8 14 4 23 12 8 7 22 5 7 8 1 2 4 10 2 6 3 8 19 3 4 9 20 4 6 12 14 3 4 1 12 3 -1 10 26 4 6 14 4 1 1 28 25 4 13 15 7 15 10 5 12 42 8 8 17 6 12 15 5 7 14 14 6 7 8 7 5 21 0 3 16 -2 14 18 22 16 2 13 5 22 17 5 17 6 10 6 12 0 13 17 6 7 5 12 9 2 39 4 15 5 7 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 34 7 39 13 6 0 8 7 5 16 7 20 7 6 3 12 49 16 13 -4 9 64 17 18 17 14 0 8 13 21 9 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 6 9 7 18 13 7 0 4 7 15 10 20 19 5 12 8 14 9 7 0 6 6 12 19 29 7 10 9 8 9 4 -3 14 2 19 6 9 4 16 6 20 6 17 8 8 8 2 7 30 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 7 7 14 5 0 13 20 10 21 49 2 4 49 5 14 3 4 5 4 -1 13 9 15 10 8 17 15 9 18 35 5 7 13 7 19 12 4 8 15 0 9 10 61 15 24 4 1 8 15 17 11 1 26 9 1 3 28 -6 1 16 33 4 3 6 14 13 7 17 1</t>
+  </si>
+  <si>
+    <t>13 7 4 6 6 3 4 11 4 9 23 1 4 14 18 7 3 3 1 6 2 8 -6 -1 5 -3 9 -1 6 6 8 2 7 3 2 10 3 8 10 4 2 8 4 6 0 3 8 7 2 5 12 -3 15 2 -1 3 4 0 4 6 -3 2 4 2 6 11 4 4 1 1 6 -1 7 4 6 5 3 6 2 8 6 6 -2 20 2 5 6 8 10 2 1 5 1 3 10 -1 1 -1 5 3 -3 2 7 3 5 4 9 3 7 8 0 6 1 1 1 2 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 9 2 9 11 9 9 14 2 4 1 3 8 -1 3 1 6 -1 3 2 44 2 4 2 2 3 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 6 0 5 6 3 9 7 3 1 8 8 1 4 4 4 3 2 12 7 9 7 3 -1 10 2 10 4 4 3 4 2 2 6 6 5 4 3 1 3 4 9 -4 1 9 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 2 5 5 3 2 2 17 2 3 6 0 3 10 0 5 6 12 8 13 13 1 3 5 1 1 16 3 3 2 6 2 2 2 7 1 3 2 3 14 5 -2 4 6 4 4 5 10 2 3 1 12 2 2 7 2 3 4 5 5 0 -3 4 4 7 6 0 1 1 3 4 3 20 1 16 6 6 4 12 3 5 20 9 5 -2 14 4 7 3 6 11 5 5 4 2 2 12 4 4 6 5 4 2 3 8 0 27 4 9 1 5 8 5 10 4 -3 2 -1 5 3 5 1 4 8 6 0 4 6 1 8 13 6 2 -1 11 4 13 3 5 -1 -4 2 2 6 4 0 4 5 0</t>
+  </si>
+  <si>
+    <t>10 11 2 18 13 28 8 4 19 3 9 -3 1 9 6 10 12 9 -1 5 8 25 7 19 9 0 23 20 25 20 16 16 9 5 8 1 9 5 26 17 21 3 8 1 2 9 10 26 5 12 6 14 8 38 19 8 18 12 9 7 4 16 0 13 13 11 10 12 3 7 5 16 4 9 10 4 1 6 9 3 19 -1 21 33 16 20 11 2 -2 11 23 10 17 24 19 4 30 11 14 1 13 3 6 14 4 5 -6 7 23 27 8 15 11 6 10 20 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 4 17 -2 13 10 23 7 9 21 4 11 1 11 -1 9 2 19 5 14 7 19 11 20 4 15 -1 14 19 9 7 6 5 9 25 5 7 22 8 8 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 1 11 5 9 8 11 24 -1 21 -2 8 9 14 5 14 -5 21 7 11 26 20 3 8 15 5 11 0 6 3 15 7 4 3 25 36 3 0 15 6 17 12 27 1 9 1 7 11 5 7 18 1 5 11 14 6 6 6 36 5 3 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 6 25 6 28 3 36 9 9 30 3 15 13 21 15 3 4 8 1 13 0 4 8 -3 12 2 14 20 8 6 8 2 6 4 24 2 23 5 4 8 5 8 13 15 11 15 5 6 10 13 9 15 8 2 2 8 10 18 26 9 34 13 1 3 5 13 5 8 13 10</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64 64 65 66 61</t>
-  </si>
-  <si>
-    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15 25 23 26 25</t>
-  </si>
-  <si>
-    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24 24 23 32 23</t>
-  </si>
-  <si>
-    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46 54 61 34 34 40 37 48</t>
-  </si>
-  <si>
-    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2 19 0 0 0 0 0 19</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 23 0 13 0</t>
+    <t>66 67 57 66 52 60 65 66 64 59 60 64 53 69 45 52 67 66 64 63 63 66 64 66 64 64 65 66 61 58 65 63</t>
+  </si>
+  <si>
+    <t>18 22 16 24 19 28 23 1 27 65 13 24 18 27 16 21 29 29 26 19 26 28 0 25 15 25 23 26 25 9 27 5</t>
+  </si>
+  <si>
+    <t>25 4 13 19 14 45 27 24 10 16 24 32 22 29 16 24 21 25 19 21 25 28 21 16 17 27 18 24 22 26 19 30 38 20 26 33 24 24 23 32 23 25 8 36 24</t>
+  </si>
+  <si>
+    <t>35 52 62 31 50 49 30 54 40 33 57 42 39 37 58 51 46 51 25 45 24 32 50 38 38 55 51 38 46 30 41 52 50 51 41 60 66 51 50 52 54 62 32 55 54 32 51 43 40 35 53 44 46 64 53 46 54 61 34 34 40 37 48 45 48</t>
+  </si>
+  <si>
+    <t>0 2 11 0 7 -1 0 0 0 0 0 0 0 0 19 17 0 6 0 0 0 0 0 16 0 0 0 0 0 0 0 17 7 26 3 16 0 10 0 0 17 0 0 0 18 0 11 1 0 0 6 0 0 0 10 -2 19 0 0 0 0 0 19 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 23 0 13 0 12 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -689,28 +689,28 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M2">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="N2">
         <v>18</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>189</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M2">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>451</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1005,19 +1005,19 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>204</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1245,16 +1245,16 @@
         <v>57</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
         <v>13</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
